--- a/ProjectDocs/Project Phase-1( SE Assignment)/Project Excel.xlsx
+++ b/ProjectDocs/Project Phase-1( SE Assignment)/Project Excel.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pranav\Desktop\Proj\Git Project\EMPManagement\ProjectDocs\Project Phase-1( SE Assignment)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A14CA3-9528-4869-A1FE-B36406D3CAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,8 +405,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,52 +807,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,6 +861,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -901,7 +915,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -933,9 +947,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,6 +999,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1142,26 +1192,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1193,54 +1243,54 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="81.75" customHeight="1">
-      <c r="A2" s="58">
+    <row r="2" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="68" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="61" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A3" s="59"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="57"/>
+    <row r="3" spans="1:10" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:10" s="28" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A4" s="60">
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="1:10" s="28" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="64">
         <v>2</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -1255,8 +1305,8 @@
       <c r="I4" s="30"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
       <c r="B5" s="47" t="s">
         <v>25</v>
       </c>
@@ -1269,8 +1319,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="90">
-      <c r="A6" s="61"/>
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
       <c r="B6" s="48" t="s">
         <v>13</v>
       </c>
@@ -1283,38 +1333,38 @@
       <c r="E6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="68" t="s">
+      <c r="J6" s="58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="61"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
       <c r="B7" s="49"/>
       <c r="C7" s="16"/>
       <c r="D7" s="19"/>
       <c r="E7" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="64"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="61"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="58"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
       <c r="B8" s="49" t="s">
         <v>14</v>
       </c>
@@ -1343,8 +1393,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="120">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
       <c r="B9" s="48" t="s">
         <v>15</v>
       </c>
@@ -1373,8 +1423,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90">
-      <c r="A10" s="61"/>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
       <c r="B10" s="48" t="s">
         <v>16</v>
       </c>
@@ -1403,8 +1453,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="61"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
       <c r="B11" s="49" t="s">
         <v>17</v>
       </c>
@@ -1417,8 +1467,8 @@
       <c r="I11" s="31"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="1:10" ht="105">
-      <c r="A12" s="61"/>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
       <c r="B12" s="48" t="s">
         <v>18</v>
       </c>
@@ -1447,8 +1497,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="150">
-      <c r="A13" s="61"/>
+    <row r="13" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
       <c r="B13" s="48" t="s">
         <v>19</v>
       </c>
@@ -1475,8 +1525,8 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="150">
-      <c r="A14" s="61"/>
+    <row r="14" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
       <c r="B14" s="48" t="s">
         <v>20</v>
       </c>
@@ -1505,8 +1555,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="90">
-      <c r="A15" s="61"/>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
       <c r="B15" s="48" t="s">
         <v>21</v>
       </c>
@@ -1531,8 +1581,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="77.25" customHeight="1">
-      <c r="A16" s="61"/>
+    <row r="16" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
       <c r="B16" s="48" t="s">
         <v>22</v>
       </c>
@@ -1561,8 +1611,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="61"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
       <c r="B17" s="49"/>
       <c r="C17" s="15"/>
       <c r="D17" s="12"/>
@@ -1573,8 +1623,8 @@
       <c r="I17" s="31"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A18" s="62"/>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="66"/>
       <c r="B18" s="11"/>
       <c r="C18" s="18"/>
       <c r="D18" s="14"/>
@@ -1585,7 +1635,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" s="28" customFormat="1">
+    <row r="19" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22"/>
       <c r="B19" s="23" t="s">
         <v>23</v>
@@ -1599,8 +1649,8 @@
       <c r="I19" s="30"/>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="69">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="59">
         <v>3</v>
       </c>
       <c r="B20" s="13" t="s">
@@ -1615,8 +1665,8 @@
       <c r="I20" s="31"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:10" ht="135">
-      <c r="A21" s="69"/>
+    <row r="21" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="59"/>
       <c r="B21" s="38" t="s">
         <v>17</v>
       </c>
@@ -1645,8 +1695,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="50" customFormat="1" ht="90">
-      <c r="A22" s="69"/>
+    <row r="22" spans="1:10" s="50" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="59"/>
       <c r="B22" s="38" t="s">
         <v>27</v>
       </c>
@@ -1675,8 +1725,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="50" customFormat="1" ht="75">
-      <c r="A23" s="69"/>
+    <row r="23" spans="1:10" s="50" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
       <c r="B23" s="38" t="s">
         <v>28</v>
       </c>
@@ -1705,8 +1755,8 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="50" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A24" s="59"/>
+    <row r="24" spans="1:10" s="50" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="60"/>
       <c r="B24" s="33" t="s">
         <v>33</v>
       </c>
@@ -1735,7 +1785,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="28" customFormat="1">
+    <row r="25" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="29" t="s">
         <v>29</v>
@@ -1749,8 +1799,8 @@
       <c r="I25" s="30"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" s="50" customFormat="1" ht="30">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:10" s="50" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="54" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="41" t="s">
@@ -1781,8 +1831,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="50" customFormat="1" ht="60">
-      <c r="A27" s="65"/>
+    <row r="27" spans="1:10" s="50" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
       <c r="B27" s="41" t="s">
         <v>30</v>
       </c>
@@ -1811,8 +1861,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="60">
-      <c r="A28" s="65"/>
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="54"/>
       <c r="B28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1841,8 +1891,8 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="50" customFormat="1" ht="75">
-      <c r="A29" s="65"/>
+    <row r="29" spans="1:10" s="50" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
       <c r="B29" s="41" t="s">
         <v>31</v>
       </c>
@@ -1871,8 +1921,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="50" customFormat="1" ht="75.75" thickBot="1">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:10" s="50" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="55"/>
       <c r="B30" s="52" t="s">
         <v>32</v>
       </c>
@@ -1903,23 +1953,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="A20:A24"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1927,24 +1977,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
